--- a/experiments/evaluation/llm-based/albert-base-v2_15/rem-100_remove/rem2/incorrect_predictions.xlsx
+++ b/experiments/evaluation/llm-based/albert-base-v2_15/rem-100_remove/rem2/incorrect_predictions.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F) Warm battery to above 25°C (77F) before flying .</t>
+          <t>Cannot track subject No image Please retry .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F)</t>
+          <t>No image</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F) Warm battery to above 25°C (77F) before flying .</t>
+          <t>Cannot track subject No image Please retry .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Warm battery to above 25°C (77F) before flying</t>
+          <t>Please retry</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,21 +512,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F) Warm battery to above 25°C (77F) before flying .</t>
+          <t>Cannot track subject No image Please retry .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Below 15°C (59F)</t>
+          <t>No image Please retry</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -537,46 +537,46 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F) Warm battery to above 25°C (77F) before flying .</t>
+          <t>Compass Interference Temp Max Altitude: nnn .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Warm battery to above 25°C (77F)</t>
+          <t>Compass Interference</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6-11</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode Enable Multiple Flight Modes in Settings menu to change .</t>
+          <t>Compass Interference Temp Max Altitude: nnn .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Enable Multiple Flight Modes in Settings menu to change</t>
+          <t>Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5-13</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,21 +587,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode Enable Multiple Flight Modes in Settings menu to change .</t>
+          <t>Compass Interference Temp Max Altitude: nnn .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Multiple Flight Modes in Settings menu to change</t>
+          <t>Compass Interference Temp</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -612,32 +612,32 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>No SD card Insert card .</t>
+          <t>Compass Interference Temp Max Altitude: nnn .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>No SD card</t>
+          <t>Max Altitude: nnn</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -646,12 +646,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Insert card</t>
+          <t>No SD card</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -662,7 +662,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -671,62 +671,62 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>No SD card Insert card</t>
+          <t>Insert card</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cannot track subject No image Please retry .</t>
+          <t>No SD card Insert card .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>No SD card Insert card</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cannot track subject No image Please retry .</t>
+          <t>Warning: Battery Temperature Below 15°C (59F) Warm battery to above 25°C (77F) before flying .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Please retry</t>
+          <t>Warning: Battery Temperature Below 15°C (59F)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -737,76 +737,76 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cannot track subject No image Please retry .</t>
+          <t>Warning: Battery Temperature Below 15°C (59F) Warm battery to above 25°C (77F) before flying .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>No image Please retry</t>
+          <t>Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
+          <t>Warning: Battery Temperature Below 15°C (59F) Warm battery to above 25°C (77F) before flying .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Compass Interference</t>
+          <t>Below 15°C (59F)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
+          <t>Warning: Battery Temperature Below 15°C (59F) Warm battery to above 25°C (77F) before flying .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Temp Max Altitude 98ft</t>
+          <t>Warm battery to above 25°C (77F)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>6-11</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -821,37 +821,37 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Compass Interference Temp</t>
+          <t>Compass Interference</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Compass Interference Temp Max Altitude: nnn .</t>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Compass Interference</t>
+          <t>Temp Max Altitude 98ft</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -862,101 +862,101 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Compass Interference Temp Max Altitude: nnn .</t>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Temp Max Altitude: nnn</t>
+          <t>Compass Interference Temp</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Compass Interference Temp Max Altitude: nnn .</t>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Compass Interference Temp</t>
+          <t>Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Compass Interference Temp Max Altitude: nnn .</t>
+          <t>Cannot change current flight mode Enable Multiple Flight Modes in Settings menu to change .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Max Altitude: nnn</t>
+          <t>Enable Multiple Flight Modes in Settings menu to change</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>5-13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+          <t>Cannot change current flight mode Enable Multiple Flight Modes in Settings menu to change .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>Multiple Flight Modes in Settings menu to change</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
